--- a/Results/Tables/Module 13c - Beta Diversity.xlsx
+++ b/Results/Tables/Module 13c - Beta Diversity.xlsx
@@ -409,13 +409,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>5.121229833616178</v>
+        <v>0.1149490239605807</v>
       </c>
       <c r="E2">
-        <v>0.4125170339723602</v>
+        <v>0.5711000024429512</v>
       </c>
       <c r="F2">
-        <v>7.021770124871197</v>
+        <v>7.545426359547293</v>
       </c>
       <c r="G2">
         <v>0.001</v>
@@ -436,13 +436,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5.135012741269074</v>
+        <v>0.1146796806007702</v>
       </c>
       <c r="E3">
-        <v>0.4136272524880703</v>
+        <v>0.5697618267182183</v>
       </c>
       <c r="F3">
-        <v>7.596724413583622</v>
+        <v>7.637308509448197</v>
       </c>
       <c r="G3">
         <v>0.001</v>
@@ -463,16 +463,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.7591680590831995</v>
+        <v>0.006243664974109955</v>
       </c>
       <c r="E4">
-        <v>0.06115127932042469</v>
+        <v>0.03102033370191959</v>
       </c>
       <c r="F4">
-        <v>3.369333720693898</v>
+        <v>1.247425752856344</v>
       </c>
       <c r="G4">
-        <v>0.005</v>
+        <v>0.277</v>
       </c>
     </row>
   </sheetData>
